--- a/biology/Zoologie/Geogarypus_indicus/Geogarypus_indicus.xlsx
+++ b/biology/Zoologie/Geogarypus_indicus/Geogarypus_indicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geogarypus indicus est une espèce de pseudoscorpions de la famille des Geogarypidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Inde et au Sri Lanka[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Inde et au Sri Lanka.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, l'Inde.
 </t>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Garypus indicus par Beier en 1930. Elle est placée dans le genre Geogarypus par Beier en 1932[2] puis dans le genre Indogarypus par Harvey en 1986[3] puis de nouveau dans le genre Geogarypus par Novák et Harvey en 2019[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Garypus indicus par Beier en 1930. Elle est placée dans le genre Geogarypus par Beier en 1932 puis dans le genre Indogarypus par Harvey en 1986 puis de nouveau dans le genre Geogarypus par Novák et Harvey en 2019.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Beier, 1930 : Die Pseudoskorpione der Sammlung Roewer. Zoologischer Anzeiger, vol. 91, p. 284-300.</t>
         </is>
